--- a/data/trans_orig/P1407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1407-Edad-trans_orig.xlsx
@@ -924,19 +924,19 @@
         <v>3767</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8658</v>
+        <v>8976</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006172161348742098</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001547231404178201</v>
+        <v>0.001527250762950298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01418777154019187</v>
+        <v>0.01470935200940439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -945,19 +945,19 @@
         <v>3767</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9624</v>
+        <v>8508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002903315813569771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007275199588868468</v>
+        <v>0.00069712853231262</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007418391164514367</v>
+        <v>0.006558134770218074</v>
       </c>
     </row>
     <row r="8">
@@ -987,19 +987,19 @@
         <v>606488</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>601597</v>
+        <v>601279</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>609311</v>
+        <v>609323</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9938278386512579</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9858122284598082</v>
+        <v>0.9852906479905964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984527685958218</v>
+        <v>0.9984727492370498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1234</v>
@@ -1008,19 +1008,19 @@
         <v>1293575</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1287718</v>
+        <v>1288834</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1296398</v>
+        <v>1296438</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9970966841864303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9925816088354856</v>
+        <v>0.993441865229782</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992724800411131</v>
+        <v>0.9993028714676874</v>
       </c>
     </row>
     <row r="9">
@@ -1125,19 +1125,19 @@
         <v>7755</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3004</v>
+        <v>3030</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16525</v>
+        <v>16243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01092939292961263</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004233878228750682</v>
+        <v>0.004270662010136137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02328796539757979</v>
+        <v>0.02289085426795226</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1146,19 +1146,19 @@
         <v>7755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2999</v>
+        <v>2974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15560</v>
+        <v>15960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005573530339210686</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002155022637153338</v>
+        <v>0.002137516770044491</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01118250476310939</v>
+        <v>0.01147044079698621</v>
       </c>
     </row>
     <row r="11">
@@ -1188,19 +1188,19 @@
         <v>701819</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>693049</v>
+        <v>693331</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>706570</v>
+        <v>706544</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9890706070703874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9767120346024204</v>
+        <v>0.9771091457320479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957661217712493</v>
+        <v>0.995729337989864</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1310</v>
@@ -1209,19 +1209,19 @@
         <v>1383682</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1375877</v>
+        <v>1375477</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388438</v>
+        <v>1388463</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9944264696607893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9888174952368904</v>
+        <v>0.9885295592030132</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978449773628466</v>
+        <v>0.9978624832299554</v>
       </c>
     </row>
     <row r="12">
@@ -1326,19 +1326,19 @@
         <v>11254</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5277</v>
+        <v>5282</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21544</v>
+        <v>20265</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01832168270057575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008590041667657436</v>
+        <v>0.008598352663488826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0350727750230538</v>
+        <v>0.03299078034635857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1347,19 +1347,19 @@
         <v>11254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5262</v>
+        <v>5314</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20741</v>
+        <v>20924</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009158211148250292</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004282265279027244</v>
+        <v>0.004324058207018827</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01687804524731882</v>
+        <v>0.0170269874885283</v>
       </c>
     </row>
     <row r="14">
@@ -1389,19 +1389,19 @@
         <v>603010</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>592720</v>
+        <v>593999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>608987</v>
+        <v>608982</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9816783172994242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9649272249769466</v>
+        <v>0.9670092196536415</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9914099583323427</v>
+        <v>0.9914016473365113</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1077</v>
@@ -1410,19 +1410,19 @@
         <v>1217626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1208139</v>
+        <v>1207956</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1223618</v>
+        <v>1223566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9908417888517497</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9831219547526827</v>
+        <v>0.9829730125114721</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9957177347209729</v>
+        <v>0.9956759417929814</v>
       </c>
     </row>
     <row r="15">
@@ -1527,19 +1527,19 @@
         <v>17583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10305</v>
+        <v>10426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27805</v>
+        <v>28063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03926438495664537</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02301143014249819</v>
+        <v>0.02328331240548145</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06209325001522838</v>
+        <v>0.06266908672961394</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1548,19 +1548,19 @@
         <v>17583</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10338</v>
+        <v>10376</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27983</v>
+        <v>28097</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02004332777144661</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01178533371735174</v>
+        <v>0.0118284328345475</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03189936808190419</v>
+        <v>0.03202910073485149</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>430217</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>419995</v>
+        <v>419737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>437495</v>
+        <v>437374</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9607356150433546</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9379067499847716</v>
+        <v>0.9373309132703861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9769885698575018</v>
+        <v>0.9767166875945186</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>783</v>
@@ -1611,19 +1611,19 @@
         <v>859646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>849246</v>
+        <v>849132</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>866891</v>
+        <v>866853</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9799566722285534</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9681006319180957</v>
+        <v>0.9679708992651485</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9882146662826482</v>
+        <v>0.9881715671654525</v>
       </c>
     </row>
     <row r="18">
@@ -1715,19 +1715,19 @@
         <v>6102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2918</v>
+        <v>2988</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13143</v>
+        <v>12459</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01969809006418649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009418883666402485</v>
+        <v>0.009646101009793318</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04242498890578499</v>
+        <v>0.04021949788446622</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>10677</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5787</v>
+        <v>5796</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18879</v>
+        <v>18696</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03016193016363912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01634688900462148</v>
+        <v>0.01637184262458532</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05333100447910968</v>
+        <v>0.05281433113177918</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -1757,19 +1757,19 @@
         <v>16779</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9904</v>
+        <v>9553</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26268</v>
+        <v>25273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02527847115695767</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01491991491543864</v>
+        <v>0.01439240152884595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03957270180470066</v>
+        <v>0.03807496956159748</v>
       </c>
     </row>
     <row r="20">
@@ -1786,19 +1786,19 @@
         <v>303684</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296643</v>
+        <v>297327</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>306868</v>
+        <v>306798</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9803019099358135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9575750110942156</v>
+        <v>0.959780502115534</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9905811163335976</v>
+        <v>0.9903538989902068</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>333</v>
@@ -1807,19 +1807,19 @@
         <v>343319</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>335117</v>
+        <v>335300</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>348209</v>
+        <v>348200</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9698380698363609</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9466689955208866</v>
+        <v>0.9471856688682209</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9836531109953786</v>
+        <v>0.9836281573754148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>609</v>
@@ -1828,19 +1828,19 @@
         <v>647003</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637514</v>
+        <v>638509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>653878</v>
+        <v>654229</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9747215288430423</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9604272981952993</v>
+        <v>0.9619250304384023</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9850800850845614</v>
+        <v>0.9856075984711539</v>
       </c>
     </row>
     <row r="21">
@@ -1932,19 +1932,19 @@
         <v>4191</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1167</v>
+        <v>999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11282</v>
+        <v>10114</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0167725450485616</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004670934570931358</v>
+        <v>0.003997509363627483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04515493067025766</v>
+        <v>0.04047831845165949</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -1953,19 +1953,19 @@
         <v>20581</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12935</v>
+        <v>13144</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30435</v>
+        <v>31658</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05307249718606421</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03335464099817276</v>
+        <v>0.03389303249904686</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07848302273300352</v>
+        <v>0.08163633991123215</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -1974,19 +1974,19 @@
         <v>24772</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16055</v>
+        <v>16246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36207</v>
+        <v>36901</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03884899574323882</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02517899275393185</v>
+        <v>0.02547875230912046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05678252372837988</v>
+        <v>0.05787039982894054</v>
       </c>
     </row>
     <row r="23">
@@ -2003,19 +2003,19 @@
         <v>245660</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238569</v>
+        <v>239737</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>248684</v>
+        <v>248852</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9832274549514384</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9548450693297398</v>
+        <v>0.9595216815483396</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9953290654290686</v>
+        <v>0.9960024906363725</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>330</v>
@@ -2024,19 +2024,19 @@
         <v>367215</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>357361</v>
+        <v>356138</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>374861</v>
+        <v>374652</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9469275028139358</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9215169772669966</v>
+        <v>0.9183636600887678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9666453590018272</v>
+        <v>0.966106967500953</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>548</v>
@@ -2045,19 +2045,19 @@
         <v>612875</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>601440</v>
+        <v>600746</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>621592</v>
+        <v>621401</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9611510042567611</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.94321747627162</v>
+        <v>0.9421296001710594</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9748210072460681</v>
+        <v>0.9745212476908796</v>
       </c>
     </row>
     <row r="24">
@@ -2149,19 +2149,19 @@
         <v>10293</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5230</v>
+        <v>5117</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19041</v>
+        <v>18603</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003003646138868004</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001526222729485489</v>
+        <v>0.001493182563042754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.005556486535347757</v>
+        <v>0.005428788648755527</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>66</v>
@@ -2170,19 +2170,19 @@
         <v>71617</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55593</v>
+        <v>55097</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91741</v>
+        <v>89973</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02015165018109078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01564266450669088</v>
+        <v>0.01550322524081104</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02581398612333268</v>
+        <v>0.02531665503949433</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>76</v>
@@ -2191,19 +2191,19 @@
         <v>81910</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65523</v>
+        <v>65340</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>103727</v>
+        <v>101957</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01173380327810851</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009386367129062349</v>
+        <v>0.009360140195350371</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01485908806244167</v>
+        <v>0.01460561310919648</v>
       </c>
     </row>
     <row r="26">
@@ -2220,19 +2220,19 @@
         <v>3416486</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3407738</v>
+        <v>3408176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3421549</v>
+        <v>3421662</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9969963538611319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9944435134646521</v>
+        <v>0.9945712113512445</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9984737772705145</v>
+        <v>0.9985068174369572</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3229</v>
@@ -2241,19 +2241,19 @@
         <v>3482299</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3462175</v>
+        <v>3463943</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3498323</v>
+        <v>3498819</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9798483498189092</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9741860138766673</v>
+        <v>0.9746833449605057</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9843573354933091</v>
+        <v>0.984496774759189</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6428</v>
@@ -2262,19 +2262,19 @@
         <v>6898784</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6876967</v>
+        <v>6878737</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6915171</v>
+        <v>6915354</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9882661967218915</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.985140911937558</v>
+        <v>0.9853943868908035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9906136328709376</v>
+        <v>0.9906398598046496</v>
       </c>
     </row>
     <row r="27">
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4489</v>
+        <v>5610</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002516152276133905</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01134232412245729</v>
+        <v>0.01417465452445861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5000</v>
+        <v>4983</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001221489036914584</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006133719519725155</v>
+        <v>0.00611301163598002</v>
       </c>
     </row>
     <row r="5">
@@ -2685,7 +2685,7 @@
         <v>394759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>391266</v>
+        <v>390145</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2694,7 +2694,7 @@
         <v>0.9974838477238661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9886576758775426</v>
+        <v>0.985825345475541</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>814222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>810218</v>
+        <v>810235</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2715,7 +2715,7 @@
         <v>0.9987785109630855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9938662804802749</v>
+        <v>0.9938869883640199</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2823,19 +2823,19 @@
         <v>2726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8223</v>
+        <v>7267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004836458911095558</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00155244133935322</v>
+        <v>0.001561467243817572</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01459181787281848</v>
+        <v>0.01289478921309466</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -2844,19 +2844,19 @@
         <v>2726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8078</v>
+        <v>7053</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002361751758204648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007570652729899428</v>
+        <v>0.0007587542633317893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006999608415980919</v>
+        <v>0.006111712531273932</v>
       </c>
     </row>
     <row r="8">
@@ -2886,19 +2886,19 @@
         <v>560818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>555321</v>
+        <v>556277</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>562669</v>
+        <v>562664</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9951635410889045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9854081821271816</v>
+        <v>0.9871052107869054</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9984475586606467</v>
+        <v>0.9984385327561824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1143</v>
@@ -2907,19 +2907,19 @@
         <v>1151314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1145962</v>
+        <v>1146987</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153166</v>
+        <v>1153164</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9976382482417954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9930003915840194</v>
+        <v>0.993888287468728</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992429347270101</v>
+        <v>0.9992412457366682</v>
       </c>
     </row>
     <row r="9">
@@ -3027,16 +3027,16 @@
         <v>980</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10754</v>
+        <v>9890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005273168541643444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001481966030709949</v>
+        <v>0.001482342414327347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01626041423939394</v>
+        <v>0.01495397483426975</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3045,19 +3045,19 @@
         <v>3488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9369</v>
+        <v>9557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002621304745275697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0007392872187616984</v>
+        <v>0.0007375984412697348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007041918286712266</v>
+        <v>0.00718319748367727</v>
       </c>
     </row>
     <row r="11">
@@ -3087,7 +3087,7 @@
         <v>657898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>650632</v>
+        <v>651496</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>660406</v>
@@ -3096,10 +3096,10 @@
         <v>0.9947268314583566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9837395857606062</v>
+        <v>0.9850460251657303</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9985180339692901</v>
+        <v>0.9985176575856727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1300</v>
@@ -3108,19 +3108,19 @@
         <v>1326995</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1321114</v>
+        <v>1320926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1329499</v>
+        <v>1329502</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9973786952547243</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9929580817132878</v>
+        <v>0.9928168025163229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9992607127812383</v>
+        <v>0.9992624015587303</v>
       </c>
     </row>
     <row r="12">
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6462</v>
+        <v>4930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001519440549386188</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01000211276826532</v>
+        <v>0.007630906696565574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3233,19 +3233,19 @@
         <v>5200</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2039</v>
+        <v>1931</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12780</v>
+        <v>11445</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008011711047425579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003142020031101055</v>
+        <v>0.002975345740136787</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01968964841249099</v>
+        <v>0.01763295422359145</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3254,19 +3254,19 @@
         <v>6182</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2833</v>
+        <v>2868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12556</v>
+        <v>14757</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004773166861806569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002187234221737081</v>
+        <v>0.002214080693184801</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009695007823859545</v>
+        <v>0.01139401397806608</v>
       </c>
     </row>
     <row r="14">
@@ -3283,7 +3283,7 @@
         <v>645066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>639586</v>
+        <v>641118</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>646048</v>
@@ -3292,7 +3292,7 @@
         <v>0.9984805594506138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9899978872317358</v>
+        <v>0.992369093303437</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3304,19 +3304,19 @@
         <v>643877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>636297</v>
+        <v>637632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>647038</v>
+        <v>647146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9919882889525744</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9803103515875088</v>
+        <v>0.9823670457764085</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9968579799688989</v>
+        <v>0.9970246542598632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1178</v>
@@ -3325,19 +3325,19 @@
         <v>1288943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1282569</v>
+        <v>1280368</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1292292</v>
+        <v>1292257</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9952268331381934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9903049921761405</v>
+        <v>0.9886059860219339</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9978127657782629</v>
+        <v>0.9977859193068151</v>
       </c>
     </row>
     <row r="15">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5128</v>
+        <v>5081</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002143782507835708</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01072903823307269</v>
+        <v>0.01063070154043425</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3450,19 +3450,19 @@
         <v>12463</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5640</v>
+        <v>5969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21416</v>
+        <v>23167</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02508336089610241</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01135181354534045</v>
+        <v>0.01201424124904285</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04310340767918251</v>
+        <v>0.04662804933041653</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3471,19 +3471,19 @@
         <v>13487</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6605</v>
+        <v>6331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24033</v>
+        <v>24000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01383632710167081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006775680030929058</v>
+        <v>0.006494799552009154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02465507887229429</v>
+        <v>0.02462164975863922</v>
       </c>
     </row>
     <row r="17">
@@ -3500,7 +3500,7 @@
         <v>476893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>472790</v>
+        <v>472837</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>477918</v>
@@ -3509,7 +3509,7 @@
         <v>0.9978562174921642</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9892709617669273</v>
+        <v>0.9893692984595682</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3521,19 +3521,19 @@
         <v>484386</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>475433</v>
+        <v>473682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>491209</v>
+        <v>490880</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9749166391038976</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9568965923208176</v>
+        <v>0.9533719506695835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9886481864546597</v>
+        <v>0.9879857587509574</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>846</v>
@@ -3542,19 +3542,19 @@
         <v>961280</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>950734</v>
+        <v>950767</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>968162</v>
+        <v>968436</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9861636728983292</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9753449211277047</v>
+        <v>0.9753783502413608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9932243199690706</v>
+        <v>0.9935052004479907</v>
       </c>
     </row>
     <row r="18">
@@ -3646,19 +3646,19 @@
         <v>8688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4144</v>
+        <v>4010</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16584</v>
+        <v>16820</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02598542289581755</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01239437763986738</v>
+        <v>0.01199482599092627</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04960286822028459</v>
+        <v>0.05030942119648324</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -3667,19 +3667,19 @@
         <v>12769</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6976</v>
+        <v>6817</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21939</v>
+        <v>21690</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03380199930332235</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01846621580288587</v>
+        <v>0.0180452910086659</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05807550574923268</v>
+        <v>0.05741656609412769</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -3688,19 +3688,19 @@
         <v>21457</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13902</v>
+        <v>13044</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33534</v>
+        <v>33216</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03013208589773085</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01952219167501508</v>
+        <v>0.01831741990008753</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04709285422710054</v>
+        <v>0.04664509290649156</v>
       </c>
     </row>
     <row r="20">
@@ -3717,19 +3717,19 @@
         <v>325642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>317746</v>
+        <v>317510</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>330186</v>
+        <v>330320</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9740145771041825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9503971317797154</v>
+        <v>0.9496905788035167</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9876056223601325</v>
+        <v>0.9880051740090737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>342</v>
@@ -3738,19 +3738,19 @@
         <v>364993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355823</v>
+        <v>356072</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>370786</v>
+        <v>370945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9661980006966776</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.941924494250767</v>
+        <v>0.9425834339058723</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9815337841971141</v>
+        <v>0.9819547089913342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>659</v>
@@ -3759,19 +3759,19 @@
         <v>690635</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>678558</v>
+        <v>678876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>698190</v>
+        <v>699048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9698679141022691</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9529071457728996</v>
+        <v>0.953354907093508</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.980477808324985</v>
+        <v>0.9816825800999124</v>
       </c>
     </row>
     <row r="21">
@@ -3863,19 +3863,19 @@
         <v>5868</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2499</v>
+        <v>2451</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11262</v>
+        <v>11585</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02283316417601185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009723482889861161</v>
+        <v>0.009536135334551629</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04382156301635393</v>
+        <v>0.04507871283194421</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -3884,19 +3884,19 @@
         <v>21490</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12546</v>
+        <v>13654</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32820</v>
+        <v>34072</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05370231764234126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03135117089484762</v>
+        <v>0.03412163095852563</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08201464955362907</v>
+        <v>0.08514384095424669</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -3905,19 +3905,19 @@
         <v>27358</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18391</v>
+        <v>17300</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39615</v>
+        <v>39025</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04163033178572927</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02798466310812139</v>
+        <v>0.02632451466010829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0602811513660866</v>
+        <v>0.05938325284823198</v>
       </c>
     </row>
     <row r="23">
@@ -3934,19 +3934,19 @@
         <v>251130</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245736</v>
+        <v>245413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>254499</v>
+        <v>254547</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9771668358239881</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9561784369836459</v>
+        <v>0.9549212871680557</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9902765171101389</v>
+        <v>0.9904638646654483</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -3955,19 +3955,19 @@
         <v>378679</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>367349</v>
+        <v>366097</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>387623</v>
+        <v>386515</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9462976823576588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9179853504463711</v>
+        <v>0.9148561590457536</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9686488291051525</v>
+        <v>0.9658783690414745</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>579</v>
@@ -3976,19 +3976,19 @@
         <v>629809</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>617552</v>
+        <v>618142</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>638776</v>
+        <v>639867</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9583696682142707</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9397188486339114</v>
+        <v>0.9406167471517685</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9720153368918786</v>
+        <v>0.9736754853398918</v>
       </c>
     </row>
     <row r="24">
@@ -4080,19 +4080,19 @@
         <v>16562</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9755</v>
+        <v>10172</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26133</v>
+        <v>26604</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004879274846283883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002873844096630208</v>
+        <v>0.002996860386887679</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.007699113392036796</v>
+        <v>0.007837639328250353</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -4101,19 +4101,19 @@
         <v>59131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44484</v>
+        <v>43633</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77477</v>
+        <v>76641</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01668224299399591</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01254992486003398</v>
+        <v>0.01230997186565154</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02185821162063385</v>
+        <v>0.02162219928792054</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -4122,19 +4122,19 @@
         <v>75693</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60248</v>
+        <v>59391</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96449</v>
+        <v>96026</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01090849597403151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008682720552651549</v>
+        <v>0.008559122334823345</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01389972972619363</v>
+        <v>0.0138387422318939</v>
       </c>
     </row>
     <row r="26">
@@ -4151,19 +4151,19 @@
         <v>3377788</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3368217</v>
+        <v>3367746</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3384595</v>
+        <v>3384178</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9951207251537161</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9923008866079628</v>
+        <v>0.9921623606717497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9971261559033698</v>
+        <v>0.9970031396131124</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3287</v>
@@ -4172,19 +4172,19 @@
         <v>3485411</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3467065</v>
+        <v>3467901</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3500058</v>
+        <v>3500909</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9833177570060041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9781417883793663</v>
+        <v>0.9783778007120795</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9874500751399662</v>
+        <v>0.9876900281343483</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6501</v>
@@ -4193,19 +4193,19 @@
         <v>6863199</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6842443</v>
+        <v>6842866</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6878644</v>
+        <v>6879501</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9890915040259685</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9861002702738065</v>
+        <v>0.9861612577681063</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9913172794473485</v>
+        <v>0.9914408776651767</v>
       </c>
     </row>
     <row r="27">
